--- a/Barroc IT - Documentatie/Santino/2.Elaboration phase/Normaliseren(v1.0).xlsx
+++ b/Barroc IT - Documentatie/Santino/2.Elaboration phase/Normaliseren(v1.0).xlsx
@@ -14,22 +14,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">naam </t>
-  </si>
-  <si>
-    <t>achternaam</t>
-  </si>
-  <si>
-    <t>plaats</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Adress1</t>
+  </si>
+  <si>
+    <t>Adress2</t>
+  </si>
+  <si>
+    <t>City1</t>
+  </si>
+  <si>
+    <t>City2</t>
+  </si>
+  <si>
+    <t>PhoneNum1</t>
+  </si>
+  <si>
+    <t>PhoneNum2</t>
+  </si>
+  <si>
+    <t>ZipCode1</t>
+  </si>
+  <si>
+    <t>ZipCode2</t>
+  </si>
+  <si>
+    <t>ContactPerson</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>FaxNum</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>BankNum</t>
+  </si>
+  <si>
+    <t>CreditWorthy</t>
+  </si>
+  <si>
+    <t>BKRCheck</t>
+  </si>
+  <si>
+    <t>PotentialCustomer</t>
+  </si>
+  <si>
+    <t>InvoiceID</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>InvoicePaid</t>
+  </si>
+  <si>
+    <t>InvoiceSent</t>
+  </si>
+  <si>
+    <t>InvoiceStatus</t>
+  </si>
+  <si>
+    <t>InvoiceTerms</t>
+  </si>
+  <si>
+    <t>LastContactDate</t>
+  </si>
+  <si>
+    <t>LedgerAccNum</t>
+  </si>
+  <si>
+    <t>TaxCode</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>ProjectStatus</t>
+  </si>
+  <si>
+    <t>MaintenanceContact</t>
+  </si>
+  <si>
+    <t>ProjectPrice</t>
+  </si>
+  <si>
+    <t>ProjectLimit</t>
+  </si>
+  <si>
+    <t>AppointmentID</t>
+  </si>
+  <si>
+    <t>AppointmentSubject</t>
+  </si>
+  <si>
+    <t>AppointmentDate</t>
+  </si>
+  <si>
+    <t>AppointmentLocation</t>
+  </si>
+  <si>
+    <t>AppointmentAdress</t>
+  </si>
+  <si>
+    <t>AppointmentTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,15 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +189,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,26 +218,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4152900" y="9934575"/>
-          <a:ext cx="28575" cy="142875"/>
+        <a:xfrm flipV="1">
+          <a:off x="1704975" y="1143000"/>
+          <a:ext cx="0" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -165,26 +265,355 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="1143000"/>
+          <a:ext cx="0" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1704975" y="1200150"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="200025"/>
+          <a:ext cx="0" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="200025"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7762875" y="10296525"/>
-          <a:ext cx="0" cy="171450"/>
+          <a:off x="1704975" y="200025"/>
+          <a:ext cx="0" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1847850" y="571500"/>
+          <a:ext cx="742950" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1905000" y="571500"/>
+          <a:ext cx="685800" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1847850" y="571500"/>
+          <a:ext cx="742950" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -500,35 +929,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W76"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -539,88 +1113,9 @@
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
-    <row r="52" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F52" s="5"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-    </row>
-    <row r="54" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F54" s="3"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-    </row>
-    <row r="56" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="I56" s="5"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-    </row>
-    <row r="58" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="H58" s="5"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Barroc IT - Documentatie/Santino/2.Elaboration phase/Normaliseren(v1.0).xlsx
+++ b/Barroc IT - Documentatie/Santino/2.Elaboration phase/Normaliseren(v1.0).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>CustomerID</t>
   </si>
@@ -131,6 +131,30 @@
   </si>
   <si>
     <t>AppointmentTime</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>UserPass</t>
+  </si>
+  <si>
+    <t>permissions</t>
+  </si>
+  <si>
+    <t>tbl_appointments</t>
+  </si>
+  <si>
+    <t>tbl_customers</t>
+  </si>
+  <si>
+    <t>tbl_projects</t>
+  </si>
+  <si>
+    <t>tbl_invoices</t>
+  </si>
+  <si>
+    <t>tbl_users</t>
   </si>
 </sst>
 </file>
@@ -189,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -197,6 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,16 +243,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -235,9 +260,103 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3724276" y="1609726"/>
+          <a:ext cx="9524" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724276" y="1590675"/>
+          <a:ext cx="9524" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1704975" y="1143000"/>
-          <a:ext cx="0" cy="542925"/>
+          <a:off x="3724275" y="1543051"/>
+          <a:ext cx="0" cy="342899"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -267,107 +386,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="1143000"/>
-          <a:ext cx="0" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1704975" y="1200150"/>
-          <a:ext cx="0" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -408,13 +433,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -455,13 +480,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -502,14 +527,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -517,9 +542,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1847850" y="571500"/>
-          <a:ext cx="742950" cy="371475"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="609600" y="1171575"/>
+          <a:ext cx="295275" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -548,15 +573,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -564,9 +589,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1905000" y="571500"/>
-          <a:ext cx="685800" cy="342900"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="571501" y="1143000"/>
+          <a:ext cx="219074" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -595,15 +620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -611,9 +636,103 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1847850" y="571500"/>
-          <a:ext cx="742950" cy="371475"/>
+        <a:xfrm>
+          <a:off x="657225" y="1209676"/>
+          <a:ext cx="266700" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="609600" y="2695575"/>
+          <a:ext cx="295275" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="2733676"/>
+          <a:ext cx="266700" cy="238124"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -932,16 +1051,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A9:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -952,7 +1071,7 @@
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -965,153 +1084,335 @@
     <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H9" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Barroc IT - Documentatie/Santino/2.Elaboration phase/Normaliseren(v1.0).xlsx
+++ b/Barroc IT - Documentatie/Santino/2.Elaboration phase/Normaliseren(v1.0).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>CustomerID</t>
   </si>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +171,22 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -213,18 +229,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -244,25 +261,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>257156</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>263286</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>106477</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3724276" y="1609726"/>
-          <a:ext cx="9524" cy="304799"/>
+          <a:off x="3857606" y="3332844"/>
+          <a:ext cx="6130" cy="202633"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -291,25 +308,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
+      <xdr:colOff>251734</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>183697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3724276" y="1590675"/>
-          <a:ext cx="9524" cy="323850"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3852184" y="3231697"/>
+          <a:ext cx="5441" cy="144916"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -338,25 +355,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>263978</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3724275" y="1543051"/>
-          <a:ext cx="0" cy="342899"/>
+        <a:xfrm>
+          <a:off x="3862387" y="3462338"/>
+          <a:ext cx="2041" cy="164305"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -384,16 +401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>421002</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -402,8 +419,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1704975" y="200025"/>
-          <a:ext cx="0" cy="771525"/>
+          <a:off x="1754502" y="2870378"/>
+          <a:ext cx="7618" cy="184766"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -431,16 +448,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>436732</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2272</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -449,8 +466,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1704975" y="200025"/>
-          <a:ext cx="0" cy="714375"/>
+          <a:off x="1766888" y="3605213"/>
+          <a:ext cx="3344" cy="588059"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -478,16 +495,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>432219</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -495,9 +512,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1704975" y="200025"/>
-          <a:ext cx="0" cy="742950"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1765719" y="3240838"/>
+          <a:ext cx="1169" cy="735850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -525,26 +542,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>421477</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>11908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>426239</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>97631</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="609600" y="1171575"/>
-          <a:ext cx="295275" cy="266700"/>
+          <a:off x="1754977" y="2678908"/>
+          <a:ext cx="4762" cy="276223"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -572,26 +589,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>421476</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>97631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>426239</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="571501" y="1143000"/>
-          <a:ext cx="219074" cy="180975"/>
+        <a:xfrm>
+          <a:off x="1754976" y="2764631"/>
+          <a:ext cx="4763" cy="173832"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -619,120 +636,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>432661</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>434578</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 25"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="1209676"/>
-          <a:ext cx="266700" cy="238124"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="609600" y="2695575"/>
-          <a:ext cx="295275" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="657225" y="2733676"/>
-          <a:ext cx="266700" cy="238124"/>
+          <a:off x="1766161" y="3813229"/>
+          <a:ext cx="1917" cy="270615"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -762,9 +685,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -802,9 +725,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,7 +762,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,7 +797,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1051,363 +974,388 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A9:T49"/>
+  <dimension ref="A10:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="S35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="T35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="E19" s="3" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Barroc IT - Documentatie/Santino/2.Elaboration phase/Normaliseren(v1.0).xlsx
+++ b/Barroc IT - Documentatie/Santino/2.Elaboration phase/Normaliseren(v1.0).xlsx
@@ -449,15 +449,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>433388</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:colOff>410766</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>436732</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2272</xdr:rowOff>
+      <xdr:colOff>412919</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -465,9 +465,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1766888" y="3605213"/>
-          <a:ext cx="3344" cy="588059"/>
+        <a:xfrm flipV="1">
+          <a:off x="1696641" y="2228742"/>
+          <a:ext cx="2153" cy="176321"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -496,15 +496,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>432219</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2338</xdr:rowOff>
+      <xdr:colOff>415530</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>433388</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>422672</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -512,9 +512,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1765719" y="3240838"/>
-          <a:ext cx="1169" cy="735850"/>
+        <a:xfrm>
+          <a:off x="1701405" y="2262188"/>
+          <a:ext cx="7142" cy="214312"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -637,15 +637,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>432661</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3229</xdr:rowOff>
+      <xdr:colOff>410765</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>434578</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -653,9 +653,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1766161" y="3813229"/>
-          <a:ext cx="1917" cy="270615"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1696640" y="2119315"/>
+          <a:ext cx="5954" cy="285748"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -977,7 +977,7 @@
   <dimension ref="A10:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,6 +1005,32 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>43</v>
@@ -1130,43 +1156,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Barroc IT - Documentatie/Santino/2.Elaboration phase/Normaliseren(v1.0).xlsx
+++ b/Barroc IT - Documentatie/Santino/2.Elaboration phase/Normaliseren(v1.0).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>CustomerID</t>
   </si>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,6 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,25 +527,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>352427</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="609600" y="1171575"/>
-          <a:ext cx="295275" cy="266700"/>
+          <a:off x="485777" y="2667001"/>
+          <a:ext cx="19048" cy="295274"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -573,25 +574,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+      <xdr:colOff>361952</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="571501" y="1143000"/>
-          <a:ext cx="219074" cy="180975"/>
+          <a:off x="495302" y="2714626"/>
+          <a:ext cx="9523" cy="247649"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -620,119 +621,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="1209676"/>
-          <a:ext cx="266700" cy="238124"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="609600" y="2695575"/>
-          <a:ext cx="295275" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="657225" y="2733676"/>
-          <a:ext cx="266700" cy="238124"/>
+          <a:off x="504825" y="2962275"/>
+          <a:ext cx="714375" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1051,16 +958,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A9:T49"/>
+  <dimension ref="A8:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -1084,6 +991,11 @@
     <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>0</v>
@@ -1110,6 +1022,11 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -1169,6 +1086,9 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
@@ -1196,7 +1116,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="E19" s="3" t="s">
         <v>18</v>
@@ -1226,7 +1151,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1237,182 +1167,468 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
